--- a/data/Strategic-Goals.xlsx
+++ b/data/Strategic-Goals.xlsx
@@ -476,7 +476,7 @@
         <v>Expand tumor genomics database</v>
       </c>
       <c r="E4" t="str">
-        <v>Red</v>
+        <v>exceeded</v>
       </c>
       <c r="F4" t="str">
         <v>Large-scale genomics infrastructure expansion requiring significant computational resources, robust data governance framework, and integration capabilities. Success factors include data management infrastructure, technical feasibility planning, and integration with existing clinical datasets. Strategic emphasis on scalability, data quality, and cross-platform compatibility for research applications.</v>

--- a/data/Strategic-Goals.xlsx
+++ b/data/Strategic-Goals.xlsx
@@ -453,7 +453,7 @@
         <v>SPill100</v>
       </c>
       <c r="D3" t="str">
-        <v>Validate novel predictive biomarkers</v>
+        <v>Validate novel predictive biomarkers - CHANGED!</v>
       </c>
       <c r="E3" t="str">
         <v>on-track</v>

--- a/data/Strategic-Goals.xlsx
+++ b/data/Strategic-Goals.xlsx
@@ -453,7 +453,7 @@
         <v>SPill100</v>
       </c>
       <c r="D3" t="str">
-        <v>Validate novel predictive biomarkers - CHANGED!</v>
+        <v>Validate novel predictive biomarkers - CHANGED!@</v>
       </c>
       <c r="E3" t="str">
         <v>on-track</v>
